--- a/outros-documentos/Planejamento-calendário.xlsx
+++ b/outros-documentos/Planejamento-calendário.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{5EB64460-758F-40FE-836D-596614346270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA8476A-67A4-4B69-8E95-A9FF14DC668A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,6 +106,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{D3DEE022-192E-48EF-AD6B-3C9E0AC9ED0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Semana do feedback para Alicio</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -233,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -382,8 +416,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +679,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,41 +698,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="9" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="8" xfId="5" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="8" xfId="5" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="8" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="9" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="8" xfId="5" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="8" xfId="5" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1018,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1026,7 +1082,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,44 +1096,44 @@
   <sheetData>
     <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="14">
+      <c r="B1" s="12">
         <v>2021</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="9" t="str">
         <f>UPPER(TEXT(C3,"dddd"))</f>
         <v>TERÇA-FEIRA</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="8" t="str">
         <f t="shared" ref="D2:H2" si="0">UPPER(TEXT(D3,"dddd"))</f>
         <v>QUARTA-FEIRA</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="9" t="str">
         <f t="shared" si="0"/>
         <v>QUINTA-FEIRA</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="8" t="str">
         <f t="shared" si="0"/>
         <v>SEXTA-FEIRA</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="10" t="str">
         <f t="shared" si="0"/>
         <v>SÁBADO</v>
       </c>
-      <c r="H2" s="13" t="str">
+      <c r="H2" s="11" t="str">
         <f t="shared" si="0"/>
         <v>DOMINGO</v>
       </c>
@@ -1093,7 +1149,7 @@
       <c r="D3" s="3">
         <v>44503</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>44504</v>
       </c>
       <c r="F3" s="3">
@@ -1110,7 +1166,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="5"/>
@@ -1190,20 +1246,20 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
+      <c r="B9" s="20">
         <f t="array" ref="B9:H9">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>44522</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="20">
         <v>44523</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="20">
         <v>44524</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="20">
         <v>44525</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>44526</v>
       </c>
       <c r="G9" s="3">
@@ -1220,7 +1276,7 @@
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="5"/>
@@ -1267,22 +1323,22 @@
       <c r="C13" s="3">
         <v>44537</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1315,6 +1371,7 @@
   <pageMargins left="0.25" right="0.25" top="0.45" bottom="0.45" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1324,12 +1381,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1615,28 +1682,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1985F9A9-ECBA-4D89-95B6-46BC70381063}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{197AAFA5-FE93-4207-990F-59C175C9E179}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1663,13 +1724,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{197AAFA5-FE93-4207-990F-59C175C9E179}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1985F9A9-ECBA-4D89-95B6-46BC70381063}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>